--- a/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
+++ b/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK\ILRG_hluvukani_ODK_forms\ILRG_Hluvukani_D_registo_horas\ILRG_Hluvukani_D_registo_horas-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_D_registo_horas\ILRG_Hluvukani_D_registo_horas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88649796-704D-4ACD-931A-2761FED7F1E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E376AE5-A8C7-4BF1-8B35-3CC8F8582219}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>type</t>
   </si>
@@ -129,78 +129,6 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>AJZ</t>
-  </si>
-  <si>
-    <t>Armando Junior Zuana</t>
-  </si>
-  <si>
-    <t>CMJX</t>
-  </si>
-  <si>
-    <t>Cacilda Mothasse Jocicaze Xerinda</t>
-  </si>
-  <si>
-    <t>CEM</t>
-  </si>
-  <si>
-    <t>Carlos Eduardo Mujovo</t>
-  </si>
-  <si>
-    <t>CGT</t>
-  </si>
-  <si>
-    <t>Coronel Gelsio Timana</t>
-  </si>
-  <si>
-    <t>EAM</t>
-  </si>
-  <si>
-    <t>Efigencia Alberto Mavondza</t>
-  </si>
-  <si>
-    <t>ESM</t>
-  </si>
-  <si>
-    <t>Elton Salomao Munguambe</t>
-  </si>
-  <si>
-    <t>HBM</t>
-  </si>
-  <si>
-    <t>Helena Benjamim Mondlane</t>
-  </si>
-  <si>
-    <t>JFM</t>
-  </si>
-  <si>
-    <t>Julio Fernando Manheia</t>
-  </si>
-  <si>
-    <t>NES</t>
-  </si>
-  <si>
-    <t>Nomisse Eugenio Sitoe</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>Noniua Paudelina Luis</t>
-  </si>
-  <si>
-    <t>RXA</t>
-  </si>
-  <si>
-    <t>Raquel Xavier Ambasse</t>
-  </si>
-  <si>
-    <t>VLM</t>
-  </si>
-  <si>
-    <t>Valdemiro Luis Mondlane</t>
   </si>
   <si>
     <t>Outro</t>
@@ -518,15 +446,118 @@
   </si>
   <si>
     <t>Dg2</t>
+  </si>
+  <si>
+    <t>Armando_Zuana</t>
+  </si>
+  <si>
+    <t>Armando Zuana</t>
+  </si>
+  <si>
+    <t>Boaventura_Jovo</t>
+  </si>
+  <si>
+    <t>Boaventura Jovo</t>
+  </si>
+  <si>
+    <t>Carlos_Munjovo</t>
+  </si>
+  <si>
+    <t>Carlos Munjovo</t>
+  </si>
+  <si>
+    <t>Edmilson_Momade</t>
+  </si>
+  <si>
+    <t>Edmilson Momade</t>
+  </si>
+  <si>
+    <t>Edson_Adozinda</t>
+  </si>
+  <si>
+    <t>Edson Adozinda</t>
+  </si>
+  <si>
+    <t>Efigencia_Alberto</t>
+  </si>
+  <si>
+    <t>Efigencia Alberto</t>
+  </si>
+  <si>
+    <t>Ester_Matlombe</t>
+  </si>
+  <si>
+    <t>Ester Matlombe</t>
+  </si>
+  <si>
+    <t>Gercia_A.Mabunda</t>
+  </si>
+  <si>
+    <t>Gercia A.Mabunda</t>
+  </si>
+  <si>
+    <t>Guilherme_Nhacundela</t>
+  </si>
+  <si>
+    <t>Guilherme Nhacundela</t>
+  </si>
+  <si>
+    <t>Helena_Bila</t>
+  </si>
+  <si>
+    <t>Helena Bila</t>
+  </si>
+  <si>
+    <t>Herondina_Timane</t>
+  </si>
+  <si>
+    <t>Herondina Timane</t>
+  </si>
+  <si>
+    <t>Irene_Timane</t>
+  </si>
+  <si>
+    <t>Irene Timane</t>
+  </si>
+  <si>
+    <t>Julio_Manheia</t>
+  </si>
+  <si>
+    <t>Julio Manheia</t>
+  </si>
+  <si>
+    <t>Ossifo_Pinto</t>
+  </si>
+  <si>
+    <t>Ossifo Pinto</t>
+  </si>
+  <si>
+    <t>Raquel_Ambasse</t>
+  </si>
+  <si>
+    <t>Raquel Ambasse</t>
+  </si>
+  <si>
+    <t>Sandra_Dimande</t>
+  </si>
+  <si>
+    <t>Sandra Dimande</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -691,18 +722,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -716,330 +741,330 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1616,11 +1641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,75 +1744,75 @@
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="33" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:15" s="20" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1795,10 +1820,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="G11" s="19"/>
@@ -1811,19 +1836,19 @@
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -1831,13 +1856,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>22</v>
@@ -1848,13 +1873,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>22</v>
@@ -1862,7 +1887,7 @@
     </row>
     <row r="15" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B15" s="34"/>
     </row>
@@ -1874,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -1888,13 +1913,13 @@
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>22</v>
@@ -1905,16 +1930,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>22</v>
@@ -1925,13 +1950,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>22</v>
@@ -1942,13 +1967,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>22</v>
@@ -1956,13 +1981,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>22</v>
@@ -1970,13 +1995,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>22</v>
@@ -1990,13 +2015,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>22</v>
@@ -2004,16 +2029,16 @@
     </row>
     <row r="24" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>22</v>
@@ -2024,16 +2049,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -2061,13 +2086,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -2102,480 +2127,528 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>118</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>103</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>149</v>
+      <c r="A25" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>149</v>
+      <c r="A26" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>149</v>
+      <c r="A27" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>143</v>
+        <v>50</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C21">
-    <sortCondition ref="C14:C21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C25">
+    <sortCondition ref="C14:C25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2586,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,16 +2688,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4">
         <v>201902282</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
+++ b/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_D_registo_horas\ILRG_Hluvukani_D_registo_horas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E376AE5-A8C7-4BF1-8B35-3CC8F8582219}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E5FAB-B144-42F8-8168-C0399A796ABD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,9 +418,6 @@
     <t>ILRG Hluvukani D - Registo Horas</t>
   </si>
   <si>
-    <t>Hluvukani_D</t>
-  </si>
-  <si>
     <t>concat(${date},'_',${tec_name})</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>Sandra Dimande</t>
+  </si>
+  <si>
+    <t>ILRG_Hluvukani_D</t>
   </si>
 </sst>
 </file>
@@ -1839,13 +1839,13 @@
         <v>102</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>130</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>131</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>103</v>
@@ -1856,13 +1856,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="H13" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>134</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>22</v>
@@ -1873,13 +1873,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="H14" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>22</v>
@@ -2131,10 +2131,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>139</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -2143,10 +2143,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="24"/>
     </row>
@@ -2155,10 +2155,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>143</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -2167,10 +2167,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>145</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -2179,10 +2179,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>147</v>
       </c>
       <c r="D7" s="24"/>
     </row>
@@ -2191,10 +2191,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>149</v>
       </c>
       <c r="D8" s="23"/>
     </row>
@@ -2203,10 +2203,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>151</v>
       </c>
       <c r="D9" s="23"/>
     </row>
@@ -2215,10 +2215,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>153</v>
       </c>
       <c r="D10" s="23"/>
     </row>
@@ -2227,10 +2227,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="23"/>
     </row>
@@ -2239,10 +2239,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>156</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>157</v>
       </c>
       <c r="D12" s="23"/>
     </row>
@@ -2251,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="D13" s="23"/>
     </row>
@@ -2263,10 +2263,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -2275,10 +2275,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>162</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>163</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -2287,10 +2287,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>165</v>
       </c>
       <c r="D16" s="23"/>
     </row>
@@ -2299,10 +2299,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>166</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>167</v>
       </c>
       <c r="D17" s="23"/>
     </row>
@@ -2311,10 +2311,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="D18" s="23"/>
     </row>
@@ -2660,7 +2660,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,13 +2691,13 @@
         <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4">
+        <v>201902283</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="4">
-        <v>201902282</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
+++ b/ILRG_Hluvukani_D_registo_horas/ILRG_Hluvukani_D_registo_horas-media/ILRG_Hluvukani_D_registo_horas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_D_registo_horas\ILRG_Hluvukani_D_registo_horas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E5FAB-B144-42F8-8168-C0399A796ABD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FC4674-8D8B-495C-BADE-E18F98D97802}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -173,21 +173,12 @@
     <t>C</t>
   </si>
   <si>
-    <t>Palmeira 1</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Palmeira 2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>Palmeira 3</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -251,306 +242,286 @@
     <t>region_id=${region_id}</t>
   </si>
   <si>
+    <t>Data da actividade:</t>
+  </si>
+  <si>
+    <t>Registo de pessoas</t>
+  </si>
+  <si>
+    <t>Registo de parcelas</t>
+  </si>
+  <si>
+    <t>Encontros ou outras actividades internos</t>
+  </si>
+  <si>
+    <t>Outras</t>
+  </si>
+  <si>
+    <t>Illovo/Maragra</t>
+  </si>
+  <si>
+    <t>Illovo</t>
+  </si>
+  <si>
+    <t>Sensibilização</t>
+  </si>
+  <si>
+    <t>Tipo de actividade</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>Hora do inicio da actividade</t>
+  </si>
+  <si>
+    <t>Hora do fim da actividade</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>select_one y_n</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>forms_no</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>Lembrete: se a 'gravar localização' está levando algum tempo, por favor, verifique se a luz azul do seu Glo está ligada</t>
+  </si>
+  <si>
+    <t>Captura das coordenadas GPS da actividade</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,255}$")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parágrafos não são permitidos. Por favor, eliminar quaisquer linhas extras. </t>
+  </si>
+  <si>
+    <t>Observações sobre a actividade:</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>usaid_hluv_logo.jpg</t>
+  </si>
+  <si>
+    <t>cavateco</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt; &lt;h1&gt;Projecto de Governação Integrada de Terra e Recursos&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da USAID implementada pela Cooperativa Hluvukani Varimi Manhiça, Maragra Açucar SA e Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>Dg1</t>
+  </si>
+  <si>
+    <t>"Formulário D - Registo de Actividades Diárias"</t>
+  </si>
+  <si>
+    <t>tec_name</t>
+  </si>
+  <si>
+    <t>block_id</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>point_activity</t>
+  </si>
+  <si>
+    <t>${forms}='yes'</t>
+  </si>
+  <si>
+    <t>select_one blocks</t>
+  </si>
+  <si>
+    <t>select_one activities</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Munguine North</t>
+  </si>
+  <si>
+    <t>awareness</t>
+  </si>
+  <si>
+    <t>person_reg</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>parcel_reg</t>
+  </si>
+  <si>
+    <t>blocks</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>ILRG Hluvukani D - Registo Horas</t>
+  </si>
+  <si>
+    <t>concat(${date},'_',${tec_name})</t>
+  </si>
+  <si>
+    <t>Novo nome do(a) técnico(a):</t>
+  </si>
+  <si>
+    <t>${tec_name}='other'</t>
+  </si>
+  <si>
+    <t>tec_given_name</t>
+  </si>
+  <si>
+    <t>Escreve o seu nome se não apareceu na lista</t>
+  </si>
+  <si>
+    <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,25}$")</t>
+  </si>
+  <si>
+    <t>tec_family_name</t>
+  </si>
+  <si>
+    <t>Escreve o seu apelido se não apareceu na lista</t>
+  </si>
+  <si>
+    <t>Dg2</t>
+  </si>
+  <si>
+    <t>Armando_Zuana</t>
+  </si>
+  <si>
+    <t>Armando Zuana</t>
+  </si>
+  <si>
+    <t>Boaventura_Jovo</t>
+  </si>
+  <si>
+    <t>Boaventura Jovo</t>
+  </si>
+  <si>
+    <t>Helena_Bila</t>
+  </si>
+  <si>
+    <t>Helena Bila</t>
+  </si>
+  <si>
+    <t>Julio_Manheia</t>
+  </si>
+  <si>
+    <t>Julio Manheia</t>
+  </si>
+  <si>
+    <t>Raquel_Ambasse</t>
+  </si>
+  <si>
+    <t>Raquel Ambasse</t>
+  </si>
+  <si>
+    <t>ILRG_Hluvukani_D</t>
+  </si>
+  <si>
+    <t>Carlos_Mujovo</t>
+  </si>
+  <si>
+    <t>Carlos Mujovo</t>
+  </si>
+  <si>
+    <t>Edson_Ernesto</t>
+  </si>
+  <si>
+    <t>Edson Ernesto</t>
+  </si>
+  <si>
+    <t>Efigencia_Mavondza</t>
+  </si>
+  <si>
+    <t>Efigencia Mavondza</t>
+  </si>
+  <si>
+    <t>Gercia_Mabunda</t>
+  </si>
+  <si>
+    <t>Gercia Mabunda</t>
+  </si>
+  <si>
+    <t>Irene_Timana</t>
+  </si>
+  <si>
+    <t>Irene Timana</t>
+  </si>
+  <si>
+    <t>Palmeira Norte</t>
+  </si>
+  <si>
+    <t>Palmeira Centro</t>
+  </si>
+  <si>
+    <t>Palmeira Sul</t>
+  </si>
+  <si>
+    <t>Completou qualquer formulário para o registo de encontros (A), pessoas (E) ou parcelas (F)?</t>
+  </si>
+  <si>
+    <t>Quantos formulários foram completados?</t>
+  </si>
+  <si>
     <t>&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt; Este formulário é utilizado para capturar informação sobre as actividades diárias dos enumeradores.
-O técnico pode usar o formulário para gravar informação sobre a data, tipo e duração de cada actividade.  Quando se trata de mais do que uma actividade, deve ser submetido um formulário para cada actividade. 
+O técnico pode usar o formulário para gravar informação sobre a data, tipo e duração de cada actividade.  Quando se trata de mais do que uma actividade no mesmo dia, deve ser submetido um formulário para cada actividade. 
 Por favor deslizar para a frente para continuar.</t>
-  </si>
-  <si>
-    <t>Data da actividade:</t>
-  </si>
-  <si>
-    <t>Registo de pessoas</t>
-  </si>
-  <si>
-    <t>Registo de parcelas</t>
-  </si>
-  <si>
-    <t>Encontros ou outras actividades internos</t>
-  </si>
-  <si>
-    <t>Outras</t>
-  </si>
-  <si>
-    <t>Illovo/Maragra</t>
-  </si>
-  <si>
-    <t>Illovo</t>
-  </si>
-  <si>
-    <t>Sensibilização</t>
-  </si>
-  <si>
-    <t>Tipo de actividade</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>Hora do inicio da actividade</t>
-  </si>
-  <si>
-    <t>Hora do fim da actividade</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>select_one y_n</t>
-  </si>
-  <si>
-    <t>forms</t>
-  </si>
-  <si>
-    <t>forms_no</t>
-  </si>
-  <si>
-    <t>Completou qualquer formulário A, B ou C?</t>
-  </si>
-  <si>
-    <t>Quantos formulários foram completados</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>Lembrete: se a 'gravar localização' está levando algum tempo, por favor, verifique se a luz azul do seu Glo está ligada</t>
-  </si>
-  <si>
-    <t>Captura das coordenadas GPS da actividade</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,255}$")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parágrafos não são permitidos. Por favor, eliminar quaisquer linhas extras. </t>
-  </si>
-  <si>
-    <t>Observações sobre a actividade:</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>usaid_hluv_logo.jpg</t>
-  </si>
-  <si>
-    <t>cavateco</t>
-  </si>
-  <si>
-    <t>&lt;br/&gt; &lt;h1&gt;Projecto de Governação Integrada de Terra e Recursos&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da USAID implementada pela Cooperativa Hluvukani Varimi Manhiça, Maragra Açucar SA e Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>Dg1</t>
-  </si>
-  <si>
-    <t>"Formulário D - Registo de Actividades Diárias"</t>
-  </si>
-  <si>
-    <t>tec_name</t>
-  </si>
-  <si>
-    <t>block_id</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>point_activity</t>
-  </si>
-  <si>
-    <t>${forms}='yes'</t>
-  </si>
-  <si>
-    <t>select_one blocks</t>
-  </si>
-  <si>
-    <t>select_one activities</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Munguine North</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>person_reg</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>parcel_reg</t>
-  </si>
-  <si>
-    <t>blocks</t>
-  </si>
-  <si>
-    <t>activities</t>
-  </si>
-  <si>
-    <t>ILRG Hluvukani D - Registo Horas</t>
-  </si>
-  <si>
-    <t>concat(${date},'_',${tec_name})</t>
-  </si>
-  <si>
-    <t>Novo nome do(a) técnico(a):</t>
-  </si>
-  <si>
-    <t>${tec_name}='other'</t>
-  </si>
-  <si>
-    <t>tec_given_name</t>
-  </si>
-  <si>
-    <t>Escreve o seu nome se não apareceu na lista</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,25}$")</t>
-  </si>
-  <si>
-    <t>tec_family_name</t>
-  </si>
-  <si>
-    <t>Escreve o seu apelido se não apareceu na lista</t>
-  </si>
-  <si>
-    <t>Dg2</t>
-  </si>
-  <si>
-    <t>Armando_Zuana</t>
-  </si>
-  <si>
-    <t>Armando Zuana</t>
-  </si>
-  <si>
-    <t>Boaventura_Jovo</t>
-  </si>
-  <si>
-    <t>Boaventura Jovo</t>
-  </si>
-  <si>
-    <t>Carlos_Munjovo</t>
-  </si>
-  <si>
-    <t>Carlos Munjovo</t>
-  </si>
-  <si>
-    <t>Edmilson_Momade</t>
-  </si>
-  <si>
-    <t>Edmilson Momade</t>
-  </si>
-  <si>
-    <t>Edson_Adozinda</t>
-  </si>
-  <si>
-    <t>Edson Adozinda</t>
-  </si>
-  <si>
-    <t>Efigencia_Alberto</t>
-  </si>
-  <si>
-    <t>Efigencia Alberto</t>
-  </si>
-  <si>
-    <t>Ester_Matlombe</t>
-  </si>
-  <si>
-    <t>Ester Matlombe</t>
-  </si>
-  <si>
-    <t>Gercia_A.Mabunda</t>
-  </si>
-  <si>
-    <t>Gercia A.Mabunda</t>
-  </si>
-  <si>
-    <t>Guilherme_Nhacundela</t>
-  </si>
-  <si>
-    <t>Guilherme Nhacundela</t>
-  </si>
-  <si>
-    <t>Helena_Bila</t>
-  </si>
-  <si>
-    <t>Helena Bila</t>
-  </si>
-  <si>
-    <t>Herondina_Timane</t>
-  </si>
-  <si>
-    <t>Herondina Timane</t>
-  </si>
-  <si>
-    <t>Irene_Timane</t>
-  </si>
-  <si>
-    <t>Irene Timane</t>
-  </si>
-  <si>
-    <t>Julio_Manheia</t>
-  </si>
-  <si>
-    <t>Julio Manheia</t>
-  </si>
-  <si>
-    <t>Ossifo_Pinto</t>
-  </si>
-  <si>
-    <t>Ossifo Pinto</t>
-  </si>
-  <si>
-    <t>Raquel_Ambasse</t>
-  </si>
-  <si>
-    <t>Raquel Ambasse</t>
-  </si>
-  <si>
-    <t>Sandra_Dimande</t>
-  </si>
-  <si>
-    <t>Sandra Dimande</t>
-  </si>
-  <si>
-    <t>ILRG_Hluvukani_D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -741,322 +712,323 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1064,6 +1036,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="236">
@@ -1641,11 +1616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,88 +1717,88 @@
       <c r="C3" s="20"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="L6" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="9" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="L6" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="20" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>111</v>
+      <c r="B11" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="G11" s="19"/>
@@ -1834,72 +1809,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -1913,13 +1888,13 @@
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>22</v>
@@ -1929,17 +1904,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>112</v>
+      <c r="A18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>22</v>
@@ -1949,14 +1924,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>113</v>
+      <c r="A19" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>22</v>
@@ -1967,13 +1942,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>22</v>
@@ -1981,13 +1956,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>87</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>22</v>
@@ -1995,13 +1970,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>22</v>
@@ -2014,14 +1989,14 @@
       <c r="A23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>115</v>
+      <c r="B23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>22</v>
@@ -2029,16 +2004,16 @@
     </row>
     <row r="24" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>22</v>
@@ -2048,24 +2023,24 @@
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>96</v>
+      <c r="B25" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2086,13 +2061,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2080,7 @@
     <col min="6" max="16384" width="10.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -2116,539 +2091,461 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="12" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B12" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>158</v>
+      <c r="B13" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>160</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>162</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>164</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>166</v>
-      </c>
+      <c r="A17" s="23"/>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>168</v>
+      <c r="A18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>33</v>
+      <c r="A19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>59</v>
-      </c>
       <c r="C38" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>61</v>
+      <c r="A39" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>80</v>
+      <c r="A40" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C25">
-    <sortCondition ref="C14:C25"/>
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C19">
+    <sortCondition ref="C14:C9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2659,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,16 +2585,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4">
-        <v>201902283</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>128</v>
+        <v>201903081</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
